--- a/tools/Excel2Json/sheet/Building.xlsx
+++ b/tools/Excel2Json/sheet/Building.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>配置规则</t>
   </si>
@@ -138,25 +138,16 @@
     <t>fOffsetY</t>
   </si>
   <si>
-    <t>iLogicX</t>
-  </si>
-  <si>
-    <t>iLogicY</t>
-  </si>
-  <si>
-    <t>iLogicOffsetX</t>
-  </si>
-  <si>
-    <t>iLogicOffsetY</t>
-  </si>
-  <si>
     <t>fScaleX</t>
   </si>
   <si>
     <t>fScaleY</t>
   </si>
   <si>
-    <t>aOffsets</t>
+    <t>aOffsets#number[]</t>
+  </si>
+  <si>
+    <t>aFlags#number[][]</t>
   </si>
   <si>
     <t>联盟城堡</t>
@@ -165,21 +156,39 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>军营</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>基本炮塔</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3],[3,3,3,3,3,3],[3,3,1,1,3,3],[3,3,1,1,3,3],[3,3,3,3,3,3],[3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>防御墙</t>
   </si>
   <si>
+    <t>[[1,1],[1,1]]</t>
+  </si>
+  <si>
     <t>地雷</t>
   </si>
   <si>
+    <t>[[3,3,3,3],[3,1,1,3],[3,1,1,3],[3,3,3,3]]</t>
+  </si>
+  <si>
     <t>圣水收集器</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>圣水储藏室</t>
   </si>
   <si>
@@ -195,9 +204,15 @@
     <t>金矿</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3],[3,1,1,1,1,3],[1,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>炼药厂</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3],[3,1,1,1,1,1],[3,1,1,1,1,1],[1,1,1,1,1,1],[1,1,1,1,1,1],[3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>符咒工厂</t>
   </si>
   <si>
@@ -210,7 +225,13 @@
     <t>[[131.014, 89.549], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657]]</t>
   </si>
   <si>
+    <t>[[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,3,3,3,3,3,3,3]]</t>
+  </si>
+  <si>
     <t>建筑工人小屋</t>
+  </si>
+  <si>
+    <t>[[3,3,3,3,3,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,3,3,3,3],[3,3,3,3,3,3]]</t>
   </si>
 </sst>
 </file>
@@ -218,8 +239,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -246,28 +267,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,21 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -319,6 +341,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -353,14 +382,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -376,7 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,19 +447,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,151 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +709,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,21 +760,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -744,22 +774,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -771,133 +792,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1311,10 +1332,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1324,8 +1345,6 @@
     <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="15.1818181818182" customWidth="1"/>
-    <col min="12" max="12" width="15.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1410,7 +1429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1444,20 +1463,11 @@
       <c r="K11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10001</v>
       </c>
@@ -1465,16 +1475,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>123.662</v>
@@ -1483,28 +1493,19 @@
         <v>93.266</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>2</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10002</v>
       </c>
@@ -1512,16 +1513,16 @@
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>92.618</v>
@@ -1530,28 +1531,19 @@
         <v>67.676</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10003</v>
       </c>
@@ -1559,16 +1551,16 @@
         <v>2</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>7</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>94.829</v>
@@ -1577,28 +1569,19 @@
         <v>52.565</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10004</v>
       </c>
@@ -1612,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1624,28 +1607,19 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>10005</v>
       </c>
@@ -1653,16 +1627,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>66.818</v>
@@ -1671,28 +1645,19 @@
         <v>55.882</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>10006</v>
       </c>
@@ -1700,16 +1665,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>10</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17">
         <v>103.306</v>
@@ -1718,28 +1683,19 @@
         <v>93.476</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>4</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>10007</v>
       </c>
@@ -1747,16 +1703,16 @@
         <v>5</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>10</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>96.672</v>
@@ -1765,28 +1721,19 @@
         <v>60.305</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>4</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>10008</v>
       </c>
@@ -1794,16 +1741,16 @@
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>7</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>92.249</v>
@@ -1812,28 +1759,19 @@
         <v>78.365</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>4</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1841,16 +1779,16 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>85.615</v>
@@ -1859,28 +1797,19 @@
         <v>71.362</v>
       </c>
       <c r="I20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1888,16 +1817,16 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>96.303</v>
@@ -1906,28 +1835,19 @@
         <v>65.833</v>
       </c>
       <c r="I21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1935,16 +1855,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>101.094</v>
@@ -1953,28 +1873,19 @@
         <v>66.57</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>4</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1982,16 +1893,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D23">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>106.623</v>
@@ -2000,28 +1911,19 @@
         <v>80.944</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>10013</v>
       </c>
@@ -2029,16 +1931,16 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>6</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>102.656</v>
@@ -2047,28 +1949,19 @@
         <v>102.807</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
         <v>0.8</v>
       </c>
-      <c r="N24">
-        <v>0.8</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="K24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>10014</v>
       </c>
@@ -2076,16 +1969,16 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>96.022</v>
@@ -2094,28 +1987,19 @@
         <v>88.064</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>10015</v>
       </c>
@@ -2123,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G26">
         <v>132.88</v>
@@ -2141,28 +2025,19 @@
         <v>110.914</v>
       </c>
       <c r="I26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>5</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>56</v>
+      </c>
+      <c r="L26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>10016</v>
       </c>
@@ -2170,16 +2045,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>105.974</v>
@@ -2188,25 +2063,16 @@
         <v>59.683</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/tools/Excel2Json/sheet/Building.xlsx
+++ b/tools/Excel2Json/sheet/Building.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>配置规则</t>
   </si>
@@ -105,15 +105,6 @@
     <t>物品名称</t>
   </si>
   <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>iId</t>
   </si>
   <si>
@@ -123,72 +114,30 @@
     <t>_Name</t>
   </si>
   <si>
-    <t>iMaxLv</t>
-  </si>
-  <si>
-    <t>iXCount</t>
-  </si>
-  <si>
-    <t>iYCount</t>
-  </si>
-  <si>
-    <t>fOffsetX</t>
-  </si>
-  <si>
-    <t>fOffsetY</t>
-  </si>
-  <si>
-    <t>fScaleX</t>
-  </si>
-  <si>
-    <t>fScaleY</t>
-  </si>
-  <si>
     <t>aOffsets#number[]</t>
   </si>
   <si>
-    <t>aFlags#number[][]</t>
-  </si>
-  <si>
     <t>联盟城堡</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,1,1,1,1,3,3],[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>军营</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>基本炮塔</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3],[3,3,3,3,3,3],[3,3,1,1,3,3],[3,3,1,1,3,3],[3,3,3,3,3,3],[3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>防御墙</t>
   </si>
   <si>
-    <t>[[1,1],[1,1]]</t>
-  </si>
-  <si>
     <t>地雷</t>
   </si>
   <si>
-    <t>[[3,3,3,3],[3,1,1,3],[3,1,1,3],[3,3,3,3]]</t>
-  </si>
-  <si>
     <t>圣水收集器</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>圣水储藏室</t>
   </si>
   <si>
@@ -204,15 +153,9 @@
     <t>金矿</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3],[3,1,1,1,1,3],[1,1,1,1,1,3],[3,1,1,1,1,3],[3,1,1,1,1,3],[3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>炼药厂</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3],[3,1,1,1,1,1],[3,1,1,1,1,1],[1,1,1,1,1,1],[1,1,1,1,1,1],[3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>符咒工厂</t>
   </si>
   <si>
@@ -225,13 +168,7 @@
     <t>[[131.014, 89.549], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657], [133.962, 97.657]]</t>
   </si>
   <si>
-    <t>[[3,3,3,3,3,3,3,3],[3,3,3,3,3,3,3,3],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,1,1,1,1,1,1,1],[3,3,3,3,3,3,3,3]]</t>
-  </si>
-  <si>
     <t>建筑工人小屋</t>
-  </si>
-  <si>
-    <t>[[3,3,3,3,3,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,1,1,1,3],[3,3,3,3,3,3],[3,3,3,3,3,3]]</t>
   </si>
 </sst>
 </file>
@@ -239,9 +176,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -266,6 +203,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -281,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,60 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,6 +262,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,7 +287,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -397,7 +319,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,19 +384,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,156 +546,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -673,15 +610,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -710,18 +638,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -738,15 +655,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,16 +682,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,137 +720,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,19 +864,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1332,19 +1257,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.4545454545455" customWidth="1"/>
     <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1399,17 +1322,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" ht="14.75" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:1">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1419,359 +1342,134 @@
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10001</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>123.662</v>
-      </c>
-      <c r="H12">
-        <v>93.266</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="C12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>10002</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
-        <v>92.618</v>
-      </c>
-      <c r="H13">
-        <v>67.676</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>10003</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>94.829</v>
-      </c>
-      <c r="H14">
-        <v>52.565</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>10004</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>10005</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>66.818</v>
-      </c>
-      <c r="H16">
-        <v>55.882</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="C16" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>10006</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>103.306</v>
-      </c>
-      <c r="H17">
-        <v>93.476</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="C17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>10007</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
-      </c>
-      <c r="G18">
-        <v>96.672</v>
-      </c>
-      <c r="H18">
-        <v>60.305</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>10008</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>6</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>92.249</v>
-      </c>
-      <c r="H19">
-        <v>78.365</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="C19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>10009</v>
       </c>
@@ -1779,37 +1477,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20">
-        <v>6</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>6</v>
-      </c>
-      <c r="G20">
-        <v>85.615</v>
-      </c>
-      <c r="H20">
-        <v>71.362</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>10010</v>
       </c>
@@ -1817,37 +1491,13 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>6</v>
-      </c>
-      <c r="G21">
-        <v>96.303</v>
-      </c>
-      <c r="H21">
-        <v>65.833</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>10011</v>
       </c>
@@ -1855,37 +1505,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22">
-        <v>10</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>6</v>
-      </c>
-      <c r="G22">
-        <v>101.094</v>
-      </c>
-      <c r="H22">
-        <v>66.57</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>10012</v>
       </c>
@@ -1893,37 +1519,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
-        <v>106.623</v>
-      </c>
-      <c r="H23">
-        <v>80.944</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
         <v>33</v>
       </c>
-      <c r="L23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>10013</v>
       </c>
@@ -1931,37 +1533,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>6</v>
-      </c>
-      <c r="G24">
-        <v>102.656</v>
-      </c>
-      <c r="H24">
-        <v>102.807</v>
-      </c>
-      <c r="I24">
-        <v>0.8</v>
-      </c>
-      <c r="J24">
-        <v>0.8</v>
-      </c>
-      <c r="K24" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>10014</v>
       </c>
@@ -1969,37 +1547,13 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>6</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25">
-        <v>96.022</v>
-      </c>
-      <c r="H25">
-        <v>88.064</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>10015</v>
       </c>
@@ -2007,37 +1561,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>132.88</v>
-      </c>
-      <c r="H26">
-        <v>110.914</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>10016</v>
       </c>
@@ -2045,34 +1575,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="F27">
-        <v>6</v>
-      </c>
-      <c r="G27">
-        <v>105.974</v>
-      </c>
-      <c r="H27">
-        <v>59.683</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>33</v>
-      </c>
-      <c r="L27" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
